--- a/docs/campy.xlsx
+++ b/docs/campy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\GitHub\HSO\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9827A5-38BD-4AD0-9833-92393568CA94}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABEE16A-F06D-4CDA-A89D-E56D66FA11D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34669" yWindow="-109" windowWidth="23040" windowHeight="13898" xr2:uid="{BC9F9AC6-E6B5-4E26-8DC4-44951FDC5054}"/>
   </bookViews>
@@ -968,11 +968,12 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/docs/campy.xlsx
+++ b/docs/campy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\GitHub\HSO\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABEE16A-F06D-4CDA-A89D-E56D66FA11D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD21A08-CBC2-4388-8B4C-A8D8207D1DE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34669" yWindow="-109" windowWidth="23040" windowHeight="13898" xr2:uid="{BC9F9AC6-E6B5-4E26-8DC4-44951FDC5054}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="13707" xr2:uid="{BC9F9AC6-E6B5-4E26-8DC4-44951FDC5054}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="191">
-  <si>
-    <t>URI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="244">
   <si>
     <t>label</t>
   </si>
@@ -459,6 +458,153 @@
     <t>Campylobacter spp</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_522483</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_449520</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_28078</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_199</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_1448859</t>
+  </si>
+  <si>
+    <t>https://w3id.org/hso#PARAM_RF-00000050-MCG</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_525142</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_200</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_119231</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_196</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_32019</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_1507806</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_32020</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_1780363</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_824</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_28898</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_1813019</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_76517</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_198</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_91352</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_91353</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_1244530</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_260714</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_197</t>
+  </si>
+  <si>
+    <t>https://w3id.org/hso#PARAM_RF-00000062-MCG</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_207</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_75658</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_201</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_303118</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_202</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_28079</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_1848766</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_488546</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_1965231</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_203</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_204</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_206</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_1031919</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_593874</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_32024</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_32023</t>
+  </si>
+  <si>
+    <t>https://w3id.org/hso#PARAM_RF-00000066-MCG</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_497724</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_654366</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_28080</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_827</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_1031542</t>
+  </si>
+  <si>
+    <t>https://w3id.org/hso#PARAM_RF-00000044-MCG</t>
+  </si>
+  <si>
+    <t>https://w3id.org/hso#PARAM_RF-00000052-MCG</t>
+  </si>
+  <si>
     <t>NCBITaxon_522483</t>
   </si>
   <si>
@@ -604,16 +750,39 @@
   </si>
   <si>
     <t>PARAM_RF-00000052-MCG</t>
+  </si>
+  <si>
+    <t>URI2</t>
+  </si>
+  <si>
+    <t>namespace</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ncbitaxon#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/hso#</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -636,10 +805,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -651,8 +821,11 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -965,909 +1138,1214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A4E8FD-7C3F-40B9-AE91-C71BF98B3EC8}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.875" customWidth="1"/>
     <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="11" max="11" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" t="s">
+        <v>147</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" t="s">
+        <v>149</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" t="s">
+        <v>160</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" t="s">
+        <v>166</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K28" t="s">
+        <v>167</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K29" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K30" t="s">
+        <v>169</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K31" t="s">
+        <v>170</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" t="s">
+        <v>171</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" t="s">
+        <v>118</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K33" t="s">
+        <v>172</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K34" t="s">
+        <v>173</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K35" t="s">
+        <v>174</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" t="s">
+        <v>121</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K36" t="s">
+        <v>175</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K37" t="s">
+        <v>176</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>224</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K38" t="s">
+        <v>177</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" t="s">
+        <v>126</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" t="s">
+        <v>178</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" t="s">
+        <v>179</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>128</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" t="s">
+        <v>180</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
+        <v>129</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" t="s">
+        <v>181</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" t="s">
+        <v>182</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" t="s">
+        <v>134</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K44" t="s">
+        <v>183</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K45" t="s">
+        <v>184</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>136</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K46" t="s">
+        <v>185</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" t="s">
+        <v>137</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K47" t="s">
         <v>186</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" t="s">
-        <v>92</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" t="s">
-        <v>95</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" t="s">
-        <v>96</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="L47" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>233</v>
+      </c>
+      <c r="B48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" t="s">
+        <v>138</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K48" t="s">
         <v>187</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" t="s">
-        <v>100</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" t="s">
-        <v>104</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" t="s">
-        <v>108</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" t="s">
-        <v>110</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" t="s">
-        <v>118</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" t="s">
-        <v>119</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>172</v>
-      </c>
-      <c r="B34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" t="s">
-        <v>120</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>173</v>
-      </c>
-      <c r="B35" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" t="s">
-        <v>121</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" t="s">
-        <v>122</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" t="s">
-        <v>116</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" t="s">
-        <v>117</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>177</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" t="s">
-        <v>127</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>178</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" t="s">
-        <v>128</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>179</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" t="s">
-        <v>129</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>180</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" t="s">
-        <v>130</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="L48" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>237</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K49" t="s">
         <v>188</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>48</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>181</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" t="s">
-        <v>135</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>182</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" t="s">
-        <v>136</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" t="s">
-        <v>137</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>184</v>
-      </c>
-      <c r="B47" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" t="s">
-        <v>138</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>185</v>
-      </c>
-      <c r="B48" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" t="s">
-        <v>139</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="L49" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>238</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K50" t="s">
         <v>189</v>
       </c>
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>53</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>190</v>
-      </c>
-      <c r="B50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
-        <v>55</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>141</v>
+      <c r="L50" s="6" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="NCBITaxon_522483" display="http://purl.obolibrary.org/obo/ncbitaxon#NCBITaxon_522483" xr:uid="{45784521-87A5-4C21-89E7-1044AE3CE313}"/>
+    <hyperlink ref="A3" r:id="rId2" location="NCBITaxon_449520" display="http://purl.obolibrary.org/obo/ncbitaxon#NCBITaxon_449520" xr:uid="{F658B31B-CC5D-45E0-A2C7-93CAFFC7AC35}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>